--- a/data/csv/estatisticas.xlsx
+++ b/data/csv/estatisticas.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>Ponto</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>29,79 ± 3,74</t>
+  </si>
+  <si>
+    <t>Amostragem</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +273,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,9 +313,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -300,11 +328,15 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="Z40" sqref="Z40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +636,7 @@
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1737,18 +1769,10 @@
       <c r="K31" s="4">
         <v>25.521799999999999</v>
       </c>
-      <c r="R31" s="5">
-        <v>1.2765441589329696</v>
-      </c>
-      <c r="S31" s="5">
-        <v>1.5396005432559829</v>
-      </c>
-      <c r="T31" s="5">
-        <v>5.5942371908246686</v>
-      </c>
-      <c r="U31" s="5">
-        <v>8.7375753362316448</v>
-      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1784,18 +1808,10 @@
       <c r="K32" s="4">
         <v>24.948599999999999</v>
       </c>
-      <c r="R32" s="5">
-        <v>1.0233494590006105</v>
-      </c>
-      <c r="S32" s="5">
-        <v>0.22284101218251134</v>
-      </c>
-      <c r="T32" s="5">
-        <v>10.471497178203867</v>
-      </c>
-      <c r="U32" s="5">
-        <v>4.6144969015164952</v>
-      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1831,18 +1847,10 @@
       <c r="K33" s="4">
         <v>18.832899999999999</v>
       </c>
-      <c r="R33" s="5">
-        <v>0.51994482106024342</v>
-      </c>
-      <c r="S33" s="5">
-        <v>0.67738572848702305</v>
-      </c>
-      <c r="T33" s="5">
-        <v>10.198225089639239</v>
-      </c>
-      <c r="U33" s="5">
-        <v>6.7927210430667095</v>
-      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1882,18 +1890,10 @@
         <f>_xlfn.T.TEST(J21:J40,K21:K40,1,3)</f>
         <v>7.5454671293083851E-5</v>
       </c>
-      <c r="R34" s="5">
-        <v>1.1996472043775033</v>
-      </c>
-      <c r="S34" s="5">
-        <v>1.630967926780639</v>
-      </c>
-      <c r="T34" s="5">
-        <v>11.060687116217753</v>
-      </c>
-      <c r="U34" s="5">
-        <v>3.7353570427057443</v>
-      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1932,16 +1932,19 @@
       <c r="M35" t="s">
         <v>37</v>
       </c>
-      <c r="R35" t="s">
+      <c r="Q35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1980,33 +1983,23 @@
         <f>_xlfn.T.TEST(H21:H40, H41:H60, 1, 3)</f>
         <v>0.13468740398772278</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R36" s="6">
-        <v>27.848170588235298</v>
-      </c>
-      <c r="S36" s="5">
-        <v>28.108082352941175</v>
-      </c>
-      <c r="T36" s="5">
-        <v>10.340870588235294</v>
-      </c>
-      <c r="U36" s="5">
-        <v>20.159558823529412</v>
-      </c>
-      <c r="W36" t="s">
+      <c r="R36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X36" t="s">
+      <c r="S36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y36" s="7" t="s">
+      <c r="T36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="7" t="s">
+      <c r="U36" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -2042,31 +2035,19 @@
       <c r="L37" t="s">
         <v>38</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="R37" s="5">
-        <v>20.227555000000006</v>
-      </c>
-      <c r="S37" s="5">
-        <v>20.635124999999999</v>
-      </c>
-      <c r="T37" s="5">
-        <v>19.175105000000002</v>
-      </c>
-      <c r="U37" s="5">
-        <v>28.472760000000001</v>
-      </c>
-      <c r="W37" t="s">
+      <c r="R37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X37" t="s">
+      <c r="S37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="T37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="U37" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2117,31 +2098,19 @@
         <f>STDEV(K21:K40)</f>
         <v>6.7927210430667095</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="5">
-        <v>19.938370000000003</v>
-      </c>
-      <c r="S38" s="5">
-        <v>19.849589999999999</v>
-      </c>
-      <c r="T38" s="5">
-        <v>13.911799999999999</v>
-      </c>
-      <c r="U38" s="5">
-        <v>25.635304999999995</v>
-      </c>
-      <c r="W38" t="s">
+      <c r="R38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="X38" t="s">
+      <c r="S38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="T38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="U38" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2179,31 +2148,19 @@
       <c r="L39" t="s">
         <v>32</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R39" s="5">
-        <v>22.325294736842107</v>
-      </c>
-      <c r="S39" s="5">
-        <v>21.076652631578952</v>
-      </c>
-      <c r="T39" s="5">
-        <v>14.738878947368425</v>
-      </c>
-      <c r="U39" s="5">
-        <v>29.792873684210523</v>
-      </c>
-      <c r="W39" t="s">
+      <c r="R39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X39" t="s">
+      <c r="S39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="T39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="U39" s="7" t="s">
         <v>65</v>
       </c>
     </row>

--- a/data/csv/estatisticas.xlsx
+++ b/data/csv/estatisticas.xlsx
@@ -2,20 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniWS/Bio/TCC_Vini_Public/data/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23720" windowHeight="17900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="coordenadas" localSheetId="0">Sheet1!$A$1:$K$77</definedName>
+    <definedName name="coordenadas" localSheetId="1">Sheet4!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -45,11 +48,28 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="coordenadas1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/viniWS/Bio/TCC_Vini_Public/data/csv/coordenadas.csv" decimal="," thousands="." semicolon="1">
+      <textFields count="11">
+        <textField/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField type="DMY"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="80">
   <si>
     <t>Ponto</t>
   </si>
@@ -250,6 +270,45 @@
   </si>
   <si>
     <t>Amostragem</t>
+  </si>
+  <si>
+    <t>Janeiro - verão</t>
+  </si>
+  <si>
+    <t>Minímo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Estação</t>
+  </si>
+  <si>
+    <t>Estação min</t>
+  </si>
+  <si>
+    <t>Desvio padrão</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Jan - Verão</t>
+  </si>
+  <si>
+    <t>Jul - Inverno</t>
+  </si>
+  <si>
+    <t>Out - Primavera</t>
+  </si>
+  <si>
+    <t>4,94 ± 2,50</t>
+  </si>
+  <si>
+    <t>5,53 ± 4,19</t>
+  </si>
+  <si>
+    <t>6,91 ± 6,47</t>
   </si>
 </sst>
 </file>
@@ -259,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,13 +354,41 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,15 +400,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -330,13 +425,40 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="14">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,6 +473,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coordenadas" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coordenadas" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35:U39"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection sqref="A1:K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3531,4 +3657,2131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <selection activeCell="I21" sqref="F1:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="9" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>43009</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>2.77</v>
+      </c>
+      <c r="H2" s="22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I2" s="22">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2</v>
+      </c>
+      <c r="G3" s="22">
+        <v>4.16</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.31</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="22">
+        <v>2.77</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.65</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22">
+        <v>2.77</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.93</v>
+      </c>
+      <c r="F6" s="21">
+        <v>5</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4.16</v>
+      </c>
+      <c r="H6" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="I6" s="22">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="F7" s="21">
+        <v>6</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="22">
+        <v>5.54</v>
+      </c>
+      <c r="I7" s="22">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="F8" s="21">
+        <v>7</v>
+      </c>
+      <c r="G8" s="22">
+        <v>6.93</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="22">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="F9" s="21">
+        <v>8</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="22">
+        <v>12.93</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="F10" s="21">
+        <v>9</v>
+      </c>
+      <c r="G10" s="22">
+        <v>5.54</v>
+      </c>
+      <c r="H10" s="22">
+        <v>7.39</v>
+      </c>
+      <c r="I10" s="22">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.69</v>
+      </c>
+      <c r="F11" s="21">
+        <v>10</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.65</v>
+      </c>
+      <c r="F12" s="21">
+        <v>11</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="22">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="F13" s="21">
+        <v>12</v>
+      </c>
+      <c r="G13" s="22">
+        <v>2.77</v>
+      </c>
+      <c r="H13" s="22">
+        <v>3.69</v>
+      </c>
+      <c r="I13" s="22">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>42924</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F14" s="21">
+        <v>13</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="22">
+        <v>14.77</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F15" s="21">
+        <v>14</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="22">
+        <v>3.69</v>
+      </c>
+      <c r="I15" s="22">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="F16" s="21">
+        <v>15</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1.85</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="22">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="F17" s="21">
+        <v>16</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1.39</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1.85</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="F18" s="21">
+        <v>17</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="22">
+        <v>3.69</v>
+      </c>
+      <c r="I18" s="22">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>12.93</v>
+      </c>
+      <c r="F19" s="21">
+        <v>18</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="22">
+        <v>3.69</v>
+      </c>
+      <c r="I19" s="22">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7.39</v>
+      </c>
+      <c r="F20" s="21">
+        <v>19</v>
+      </c>
+      <c r="G20" s="22">
+        <v>3.69</v>
+      </c>
+      <c r="H20" s="22">
+        <v>1.85</v>
+      </c>
+      <c r="I20" s="22">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.69</v>
+      </c>
+      <c r="F21" s="21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="22">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H21" s="22">
+        <v>9.23</v>
+      </c>
+      <c r="I21" s="22">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.69</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.69</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3.69</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.23</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>42760</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.84</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4.58</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9.07</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4">
+        <v>6.65</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4.82</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39" s="4">
+        <v>10.65</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40" s="4">
+        <v>27.7</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.84</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A28"/>
+    <mergeCell ref="A29:A42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" customWidth="1"/>
+    <col min="20" max="21" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17">
+        <v>-28.46321</v>
+      </c>
+      <c r="C2" s="17">
+        <v>-48.845545000000001</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E2" s="16">
+        <v>130</v>
+      </c>
+      <c r="F2" s="19">
+        <v>43009</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1.39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4">
+        <f>AVERAGE(G2:G20)</f>
+        <v>4.9441666666666668</v>
+      </c>
+      <c r="L2" s="4">
+        <f>_xlfn.STDEV.S(G2:G20)</f>
+        <v>2.5010305451710875</v>
+      </c>
+      <c r="M2" s="4">
+        <f>MIN(G2:G20)</f>
+        <v>1.39</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4">
+        <f>MAX(G2:G20)</f>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="23">
+        <v>1.39</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="23">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="17">
+        <v>-28.457497</v>
+      </c>
+      <c r="C3" s="17">
+        <v>-48.831837</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E3" s="16">
+        <v>100</v>
+      </c>
+      <c r="F3" s="19">
+        <v>43009</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1.85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="4">
+        <f>AVERAGE(G21:G40)</f>
+        <v>5.5346666666666664</v>
+      </c>
+      <c r="L3" s="4">
+        <f>_xlfn.STDEV.S(G21:G40)</f>
+        <v>4.1871331253643964</v>
+      </c>
+      <c r="M3" s="4">
+        <f>MIN(G21:G40)</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4">
+        <f>MAX(G21:G40)</f>
+        <v>14.77</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="23">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="23">
+        <v>14.77</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
+        <v>-28.495190999999998</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-48.753239999999998</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="E4" s="8">
+        <v>135</v>
+      </c>
+      <c r="F4" s="11">
+        <v>43009</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2.77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="4">
+        <f>AVERAGE(G41:G57)</f>
+        <v>6.9135714285714291</v>
+      </c>
+      <c r="L4" s="4">
+        <f>_xlfn.STDEV.S(G41:G57)</f>
+        <v>6.4692784131472632</v>
+      </c>
+      <c r="M4" s="4">
+        <f>MIN(G41:G57)</f>
+        <v>0.62</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="4">
+        <f>MAX(G41:G57)</f>
+        <v>27.7</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="23">
+        <v>27.7</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-28.474591</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-48.823625</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="E5">
+        <v>190</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43009</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-28.433827999999998</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-48.824950000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43009</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-28.496576000000001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-48.759543000000001</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="E7" s="8">
+        <v>150</v>
+      </c>
+      <c r="F7" s="11">
+        <v>43009</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-28.491002000000002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-48.806651000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43009</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-28.429048000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-48.830182000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43009</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
+        <v>-28.506855999999999</v>
+      </c>
+      <c r="C10" s="13">
+        <v>-48.797201000000001</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="E10" s="12">
+        <v>90</v>
+      </c>
+      <c r="F10" s="15">
+        <v>43009</v>
+      </c>
+      <c r="G10" s="13">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-28.478801000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-48.791544000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="E11">
+        <v>115</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43009</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="13">
+        <v>-28.513133</v>
+      </c>
+      <c r="C12" s="13">
+        <v>-48.808737000000001</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="E12" s="12">
+        <v>80</v>
+      </c>
+      <c r="F12" s="15">
+        <v>43009</v>
+      </c>
+      <c r="G12" s="13">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9">
+        <v>-28.450671</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-48.821950999999999</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="E13" s="8">
+        <v>120</v>
+      </c>
+      <c r="F13" s="11">
+        <v>43009</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-28.462786999999999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-48.804977000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="E14">
+        <v>180</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43009</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="9">
+        <v>-28.469857999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-48.810977999999999</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="E15" s="8">
+        <v>130</v>
+      </c>
+      <c r="F15" s="11">
+        <v>43009</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="17">
+        <v>-28.497267999999998</v>
+      </c>
+      <c r="C16" s="17">
+        <v>-48.832250000000002</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="E16" s="16">
+        <v>130</v>
+      </c>
+      <c r="F16" s="19">
+        <v>43009</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="17">
+        <v>-28.442270000000001</v>
+      </c>
+      <c r="C17" s="17">
+        <v>-48.840620999999999</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="E17" s="16">
+        <v>230</v>
+      </c>
+      <c r="F17" s="19">
+        <v>43009</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-28.42399</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-48.833888000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E18">
+        <v>170</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43009</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="13">
+        <v>-28.499237999999998</v>
+      </c>
+      <c r="C19" s="13">
+        <v>-48.786512000000002</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E19" s="12">
+        <v>90</v>
+      </c>
+      <c r="F19" s="15">
+        <v>43009</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-28.482447000000001</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-48.794307000000003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43009</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9">
+        <v>-28.496576000000001</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-48.759543000000001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="E21" s="8">
+        <v>110</v>
+      </c>
+      <c r="F21" s="11">
+        <v>42924</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="17">
+        <v>-28.46321</v>
+      </c>
+      <c r="C22" s="17">
+        <v>-48.845545000000001</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="19">
+        <v>42924</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-28.433827999999998</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-48.824950000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="2">
+        <v>42924</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="9">
+        <v>-28.495190999999998</v>
+      </c>
+      <c r="C24" s="9">
+        <v>-48.753239999999998</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E24" s="8">
+        <v>125</v>
+      </c>
+      <c r="F24" s="11">
+        <v>42924</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9">
+        <v>-28.501429000000002</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-48.772615999999999</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="E25" s="8">
+        <v>100</v>
+      </c>
+      <c r="F25" s="11">
+        <v>42924</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-28.474591</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-48.823625</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26" s="2">
+        <v>42924</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="9">
+        <v>-28.450671</v>
+      </c>
+      <c r="C27" s="9">
+        <v>-48.821950999999999</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="E27" s="8">
+        <v>110</v>
+      </c>
+      <c r="F27" s="11">
+        <v>42924</v>
+      </c>
+      <c r="G27" s="9">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="17">
+        <v>-28.442270000000001</v>
+      </c>
+      <c r="C28" s="17">
+        <v>-48.840620999999999</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="F28" s="19">
+        <v>42924</v>
+      </c>
+      <c r="G28" s="17">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>-28.42399</v>
+      </c>
+      <c r="C29" s="4">
+        <v>-48.833888000000002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" s="2">
+        <v>42924</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="13">
+        <v>-28.499237999999998</v>
+      </c>
+      <c r="C30" s="13">
+        <v>-48.786512000000002</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="E30" s="12">
+        <v>80</v>
+      </c>
+      <c r="F30" s="15">
+        <v>42924</v>
+      </c>
+      <c r="G30" s="13">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-28.491002000000002</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-48.806651000000002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2">
+        <v>42924</v>
+      </c>
+      <c r="G31" s="4">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="13">
+        <v>-28.506855999999999</v>
+      </c>
+      <c r="C32" s="13">
+        <v>-48.797201000000001</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="E32" s="12">
+        <v>100</v>
+      </c>
+      <c r="F32" s="15">
+        <v>42924</v>
+      </c>
+      <c r="G32" s="13">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-28.429048000000002</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-48.830182000000001</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" s="2">
+        <v>42924</v>
+      </c>
+      <c r="G33" s="4">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-28.482447000000001</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-48.794307000000003</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2">
+        <v>42924</v>
+      </c>
+      <c r="G34" s="4">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="17">
+        <v>-28.497267999999998</v>
+      </c>
+      <c r="C35" s="17">
+        <v>-48.832250000000002</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="E35" s="16">
+        <v>100</v>
+      </c>
+      <c r="F35" s="19">
+        <v>42924</v>
+      </c>
+      <c r="G35" s="17">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-28.462786999999999</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-48.804977000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36" s="2">
+        <v>42924</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="9">
+        <v>-28.469857999999999</v>
+      </c>
+      <c r="C37" s="9">
+        <v>-48.810977999999999</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E37" s="8">
+        <v>115</v>
+      </c>
+      <c r="F37" s="11">
+        <v>42924</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="17">
+        <v>-28.457497</v>
+      </c>
+      <c r="C38" s="17">
+        <v>-48.831837</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="E38" s="16">
+        <v>60</v>
+      </c>
+      <c r="F38" s="19">
+        <v>42924</v>
+      </c>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="13">
+        <v>-28.513133</v>
+      </c>
+      <c r="C39" s="13">
+        <v>-48.808737000000001</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="E39" s="12">
+        <v>100</v>
+      </c>
+      <c r="F39" s="15">
+        <v>42924</v>
+      </c>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-28.478801000000001</v>
+      </c>
+      <c r="C40" s="4">
+        <v>-48.791544000000002</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+      <c r="F40" s="2">
+        <v>42924</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-28.482447000000001</v>
+      </c>
+      <c r="C41" s="4">
+        <v>-48.794307000000003</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="E41">
+        <v>0.6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>42760</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-28.478801000000001</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-48.791544000000002</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="E42">
+        <v>0.7</v>
+      </c>
+      <c r="F42" s="2">
+        <v>42760</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="4">
+        <v>-28.433827999999998</v>
+      </c>
+      <c r="C43" s="4">
+        <v>-48.824950000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="E43">
+        <v>0.8</v>
+      </c>
+      <c r="F43" s="2">
+        <v>42760</v>
+      </c>
+      <c r="G43" s="4">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="13">
+        <v>-28.499237999999998</v>
+      </c>
+      <c r="C44" s="13">
+        <v>-48.786512000000002</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F44" s="15">
+        <v>42760</v>
+      </c>
+      <c r="G44" s="13">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="13">
+        <v>-28.506855999999999</v>
+      </c>
+      <c r="C45" s="13">
+        <v>-48.797201000000001</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="15">
+        <v>42760</v>
+      </c>
+      <c r="G45" s="13">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="17">
+        <v>-28.457497</v>
+      </c>
+      <c r="C46" s="17">
+        <v>-48.831837</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="F46" s="19">
+        <v>42760</v>
+      </c>
+      <c r="G46" s="17">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="9">
+        <v>-28.495190999999998</v>
+      </c>
+      <c r="C47" s="9">
+        <v>-48.753239999999998</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.59375</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="F47" s="11">
+        <v>42760</v>
+      </c>
+      <c r="G47" s="9">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-28.474591</v>
+      </c>
+      <c r="C48" s="4">
+        <v>-48.823625</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="E48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F48" s="2">
+        <v>42760</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-28.429048000000002</v>
+      </c>
+      <c r="C49" s="4">
+        <v>-48.830182000000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="E49">
+        <v>0.7</v>
+      </c>
+      <c r="F49" s="2">
+        <v>42760</v>
+      </c>
+      <c r="G49" s="4">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="4">
+        <v>-28.491002000000002</v>
+      </c>
+      <c r="C50" s="4">
+        <v>-48.806651000000002</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="E50">
+        <v>0.6</v>
+      </c>
+      <c r="F50" s="2">
+        <v>42760</v>
+      </c>
+      <c r="G50" s="4">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="9">
+        <v>-28.450671</v>
+      </c>
+      <c r="C51" s="9">
+        <v>-48.821950999999999</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F51" s="11">
+        <v>42760</v>
+      </c>
+      <c r="G51" s="9">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="9">
+        <v>-28.469857999999999</v>
+      </c>
+      <c r="C52" s="9">
+        <v>-48.810977999999999</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F52" s="11">
+        <v>42760</v>
+      </c>
+      <c r="G52" s="9">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="17">
+        <v>-28.442270000000001</v>
+      </c>
+      <c r="C53" s="17">
+        <v>-48.840620999999999</v>
+      </c>
+      <c r="D53" s="18">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F53" s="19">
+        <v>42760</v>
+      </c>
+      <c r="G53" s="17">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="4">
+        <v>-28.42399</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-48.833888000000002</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E54">
+        <v>0.7</v>
+      </c>
+      <c r="F54" s="2">
+        <v>42760</v>
+      </c>
+      <c r="G54" s="4">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="4">
+        <v>-28.462786999999999</v>
+      </c>
+      <c r="C55" s="4">
+        <v>-48.804977000000001</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="E55">
+        <v>0.7</v>
+      </c>
+      <c r="F55" s="2">
+        <v>42760</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="17">
+        <v>-28.46321</v>
+      </c>
+      <c r="C56" s="17">
+        <v>-48.845545000000001</v>
+      </c>
+      <c r="D56" s="18">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F56" s="19">
+        <v>42760</v>
+      </c>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="13">
+        <v>-28.513133</v>
+      </c>
+      <c r="C57" s="13">
+        <v>-48.808737000000001</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="15">
+        <v>42760</v>
+      </c>
+      <c r="G57" s="13"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G77">
+    <sortCondition descending="1" ref="F2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>